--- a/src/spz/templates/export/overview.xlsx
+++ b/src/spz/templates/export/overview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfenker\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,9 +56,6 @@
     <t>applicant.tag</t>
   </si>
   <si>
-    <t>course.full_name</t>
-  </si>
-  <si>
     <t>semester</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>LP</t>
+  </si>
+  <si>
+    <t>course.name</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -586,22 +586,23 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
